--- a/biology/Zoologie/Batrachyla_taeniata/Batrachyla_taeniata.xlsx
+++ b/biology/Zoologie/Batrachyla_taeniata/Batrachyla_taeniata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachyla taeniata est une espèce d'amphibiens de la famille des Batrachylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachyla taeniata est une espèce d'amphibiens de la famille des Batrachylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Chili et dans l'extrême ouest de l'Argentine avec un large éventail de latitude (environ 1 600 km du 32°S au 46°S) dans le biome de la forêt de Nothofagus, du niveau de la mer jusqu'à 1 000 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Chili et dans l'extrême ouest de l'Argentine avec un large éventail de latitude (environ 1 600 km du 32°S au 46°S) dans le biome de la forêt de Nothofagus, du niveau de la mer jusqu'à 1 000 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Litoria glandulosa Bell, 1843
 Dendrobates lateralis Guichenot, 1848
@@ -584,7 +600,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Girard, 1855 "1854" : Abstract of a Report to Lieut. James M. Gilliss, U.S.N., upon the Reptiles collected during the U.S.N. Astronomical Expedition to Chili. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 7, p. 226–227  (texte intégral).</t>
         </is>
